--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>IRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F8" s="3">
         <v>10700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>11500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>12500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F9" s="3">
         <v>6400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>6000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>6000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="E10" s="3">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="F10" s="3">
         <v>4300</v>
       </c>
       <c r="G10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I10" s="3">
         <v>4700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,16 +907,18 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
@@ -900,7 +927,7 @@
         <v>900</v>
       </c>
       <c r="H12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
@@ -909,25 +936,31 @@
         <v>1100</v>
       </c>
       <c r="K12" s="3">
+        <v>900</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,38 +1023,44 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F17" s="3">
         <v>12500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>13600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>14400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>12700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>13600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,14 +1255,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1209,66 +1276,78 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2600</v>
       </c>
       <c r="H21" s="3">
         <v>-2800</v>
       </c>
       <c r="I21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,52 +1390,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1382,25 +1473,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>9700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,14 +1855,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1737,66 +1876,78 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F41" s="3">
         <v>12900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>15600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>17200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>21200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>23700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>16000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>18500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>21700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>22800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>24600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>23900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,122 +2235,140 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F43" s="3">
         <v>8800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>8100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>9100</v>
       </c>
       <c r="H43" s="3">
         <v>8400</v>
       </c>
       <c r="I43" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K43" s="3">
         <v>7100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>8900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>10000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F44" s="3">
         <v>8900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>9000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>8800</v>
       </c>
       <c r="H44" s="3">
         <v>8700</v>
       </c>
       <c r="I44" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K44" s="3">
         <v>9100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>9300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>9400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>10700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>11400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>11700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>11600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
@@ -2180,60 +2377,72 @@
         <v>500</v>
       </c>
       <c r="N45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>500</v>
+      </c>
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F46" s="3">
         <v>31200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>33300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>35100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>39600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>41400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>32900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>34900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>39500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>41500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>43500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>45000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>45900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,52 +2485,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F48" s="3">
         <v>3900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1500</v>
       </c>
       <c r="K48" s="3">
         <v>1400</v>
       </c>
       <c r="L48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2350,10 +2571,10 @@
         <v>600</v>
       </c>
       <c r="L49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N49" s="3">
         <v>700</v>
@@ -2362,10 +2583,16 @@
         <v>700</v>
       </c>
       <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+      <c r="R49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,13 +2685,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2479,25 +2718,31 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F54" s="3">
         <v>36000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>38500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>40700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>41700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>43500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>35100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>37200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>41600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>43600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>45800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>47400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>48100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,52 +2879,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="F57" s="3">
         <v>2400</v>
       </c>
       <c r="G57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1800</v>
       </c>
       <c r="N57" s="3">
         <v>1900</v>
       </c>
       <c r="O57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,96 +2975,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F59" s="3">
         <v>6900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9300</v>
+        <v>7800</v>
       </c>
       <c r="E60" s="3">
         <v>9800</v>
       </c>
       <c r="F60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H60" s="3">
         <v>9600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>10400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,52 +3125,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>700</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
       </c>
       <c r="L62" s="3">
+        <v>700</v>
+      </c>
+      <c r="M62" s="3">
+        <v>700</v>
+      </c>
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F66" s="3">
         <v>12000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-49100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-47300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-44900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-41800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-38900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-35900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-32600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-29000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-20700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F76" s="3">
         <v>24000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>30000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>32600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>24400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>27300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>30500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>35100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>37600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>39800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>39200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,22 +4024,24 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3673,8 +4070,14 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4099,40 +4558,46 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,13 +4810,19 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4340,66 +4831,72 @@
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>10600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>14900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>10</v>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>7700</v>
       </c>
       <c r="I102" s="3">
         <v>-2500</v>
       </c>
       <c r="J102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>14200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>IRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>9000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>5100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>4500</v>
       </c>
       <c r="P10" s="3">
         <v>4500</v>
       </c>
       <c r="Q10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R10" s="3">
         <v>5500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1500</v>
       </c>
       <c r="P12" s="3">
         <v>1500</v>
       </c>
       <c r="Q12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,11 +1049,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1041,11 +1061,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1053,14 +1073,17 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>14400</v>
       </c>
       <c r="J17" s="3">
         <v>14400</v>
       </c>
       <c r="K17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="L17" s="3">
         <v>13600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,11 +1295,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1282,11 +1316,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1294,60 +1328,66 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1479,11 +1525,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1491,13 +1537,16 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>9700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1861,11 +1931,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1882,11 +1952,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1894,60 +1964,66 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2331,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
         <v>7000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="E44" s="3">
         <v>8200</v>
       </c>
       <c r="F44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G44" s="3">
         <v>8900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E46" s="3">
         <v>27000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>43500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,58 +2596,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1400</v>
       </c>
       <c r="N48" s="3">
         <v>1400</v>
       </c>
       <c r="O48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2577,7 +2688,7 @@
         <v>600</v>
       </c>
       <c r="N49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O49" s="3">
         <v>700</v>
@@ -2589,10 +2700,13 @@
         <v>700</v>
       </c>
       <c r="R49" s="3">
+        <v>700</v>
+      </c>
+      <c r="S49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,16 +2808,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2724,25 +2844,28 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
       </c>
       <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E54" s="3">
         <v>30900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,81 +3011,85 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2981,113 +3115,122 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>7800</v>
       </c>
       <c r="K59" s="3">
         <v>7800</v>
       </c>
       <c r="L59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M59" s="3">
         <v>7300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3131,34 +3274,37 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>700</v>
@@ -3167,22 +3313,25 @@
         <v>700</v>
       </c>
       <c r="N62" s="3">
+        <v>700</v>
+      </c>
+      <c r="O62" s="3">
         <v>800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
       </c>
       <c r="Q62" s="3">
+        <v>400</v>
+      </c>
+      <c r="R62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-50600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E76" s="3">
         <v>21100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,16 +4234,16 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,17 +4616,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4414,40 +4635,43 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
       <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,13 +4773,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -4564,40 +4794,43 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-400</v>
       </c>
       <c r="Q94" s="3">
         <v>-400</v>
       </c>
       <c r="R94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>14900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4878,28 +5127,28 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>10</v>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>IRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4500</v>
       </c>
       <c r="Q10" s="3">
         <v>4500</v>
       </c>
       <c r="R10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S10" s="3">
         <v>5500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1500</v>
       </c>
       <c r="Q12" s="3">
         <v>1500</v>
       </c>
       <c r="R12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,11 +1072,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1064,11 +1084,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1076,14 +1096,17 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>14400</v>
       </c>
       <c r="K17" s="3">
         <v>14400</v>
       </c>
       <c r="L17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="M17" s="3">
         <v>13600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,13 +1313,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1298,11 +1332,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1319,11 +1353,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1331,63 +1365,69 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,61 +1479,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1528,11 +1574,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1540,13 +1586,16 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>9700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,13 +1983,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1934,11 +2004,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1955,11 +2025,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -1967,63 +2037,69 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E41" s="3">
         <v>11600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,114 +2424,123 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7800</v>
-      </c>
-      <c r="E44" s="3">
-        <v>8200</v>
       </c>
       <c r="F44" s="3">
         <v>8200</v>
       </c>
       <c r="G44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H44" s="3">
         <v>8900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2449,105 +2548,111 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
       </c>
       <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
         <v>800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
       </c>
       <c r="N45" s="3">
+        <v>700</v>
+      </c>
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E46" s="3">
         <v>25800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>41500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>43500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,61 +2704,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1400</v>
       </c>
       <c r="O48" s="3">
         <v>1400</v>
       </c>
       <c r="P48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2691,7 +2802,7 @@
         <v>600</v>
       </c>
       <c r="O49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P49" s="3">
         <v>700</v>
@@ -2703,10 +2814,13 @@
         <v>700</v>
       </c>
       <c r="S49" s="3">
+        <v>700</v>
+      </c>
+      <c r="T49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,19 +2928,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2847,25 +2967,28 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
       </c>
       <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E54" s="3">
         <v>29300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>48100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,69 +3142,73 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -3091,8 +3225,8 @@
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3118,123 +3252,132 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>7800</v>
       </c>
       <c r="L59" s="3">
         <v>7800</v>
       </c>
       <c r="M59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N59" s="3">
         <v>7300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3277,37 +3420,40 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>700</v>
       </c>
       <c r="M62" s="3">
         <v>700</v>
@@ -3316,22 +3462,25 @@
         <v>700</v>
       </c>
       <c r="O62" s="3">
+        <v>700</v>
+      </c>
+      <c r="P62" s="3">
         <v>800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>400</v>
       </c>
       <c r="R62" s="3">
+        <v>400</v>
+      </c>
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E76" s="3">
         <v>18800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4237,16 +4436,16 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4626,11 +4847,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4638,40 +4859,43 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-300</v>
       </c>
       <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5003,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4785,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -4797,40 +5027,43 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-400</v>
       </c>
       <c r="R94" s="3">
         <v>-400</v>
       </c>
       <c r="S94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,66 +5305,72 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>14900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5130,28 +5379,28 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>10</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>10</v>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>IRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E8" s="3">
         <v>8800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="3">
         <v>5100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>4500</v>
       </c>
       <c r="R10" s="3">
         <v>4500</v>
       </c>
       <c r="S10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T10" s="3">
         <v>5500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -946,55 +960,58 @@
         <v>900</v>
       </c>
       <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1500</v>
       </c>
       <c r="R12" s="3">
         <v>1500</v>
       </c>
       <c r="S12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1066,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1075,11 +1095,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1087,11 +1107,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1099,14 +1119,17 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>10600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>14400</v>
       </c>
       <c r="L17" s="3">
         <v>14400</v>
       </c>
       <c r="M17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="N17" s="3">
         <v>13600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1347,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1357,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1335,11 +1369,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1356,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1368,66 +1402,72 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,64 +1522,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1577,11 +1623,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1589,13 +1635,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>9700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2053,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1995,7 +2065,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2007,11 +2077,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2028,11 +2098,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2040,66 +2110,72 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,232 +2517,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E43" s="3">
         <v>6100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E44" s="3">
         <v>7000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>8200</v>
       </c>
       <c r="G44" s="3">
         <v>8200</v>
       </c>
       <c r="H44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I44" s="3">
         <v>8900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>600</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
       <c r="M45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
       </c>
       <c r="O45" s="3">
+        <v>700</v>
+      </c>
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E46" s="3">
         <v>25600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>41500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>43500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,64 +2812,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1400</v>
       </c>
       <c r="P48" s="3">
         <v>1400</v>
       </c>
       <c r="Q48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2805,7 +2916,7 @@
         <v>600</v>
       </c>
       <c r="P49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q49" s="3">
         <v>700</v>
@@ -2817,10 +2928,13 @@
         <v>700</v>
       </c>
       <c r="T49" s="3">
+        <v>700</v>
+      </c>
+      <c r="U49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3048,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2940,13 +3060,13 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2970,25 +3090,28 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
       <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E54" s="3">
         <v>28500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>47400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>48100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,75 +3273,79 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
@@ -3228,8 +3362,8 @@
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3255,132 +3389,141 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>7800</v>
       </c>
       <c r="M59" s="3">
         <v>7800</v>
       </c>
       <c r="N59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O59" s="3">
         <v>7300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E60" s="3">
         <v>9200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3423,40 +3566,43 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
@@ -3465,22 +3611,25 @@
         <v>700</v>
       </c>
       <c r="P62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>400</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
       </c>
       <c r="S62" s="3">
+        <v>400</v>
+      </c>
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-49100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-44900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E76" s="3">
         <v>17300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>37600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4622,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4439,16 +4638,16 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4480,8 +4679,11 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5058,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4850,11 +5071,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4862,40 +5083,43 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-300</v>
       </c>
       <c r="T91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5233,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5018,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -5030,40 +5260,43 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-400</v>
       </c>
       <c r="S94" s="3">
         <v>-400</v>
       </c>
       <c r="T94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,8 +5551,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5317,55 +5563,58 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5373,7 +5622,7 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5382,28 +5631,28 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>10</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>10</v>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>IRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>4500</v>
       </c>
       <c r="S10" s="3">
         <v>4500</v>
       </c>
       <c r="T10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U10" s="3">
         <v>5500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
         <v>900</v>
       </c>
       <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1500</v>
       </c>
       <c r="S12" s="3">
         <v>1500</v>
       </c>
       <c r="T12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,40 +1085,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1110,11 +1129,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1122,14 +1141,17 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>14400</v>
       </c>
       <c r="M17" s="3">
         <v>14400</v>
       </c>
       <c r="N17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="O17" s="3">
         <v>13600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,19 +1380,20 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1372,11 +1405,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1393,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1405,69 +1438,75 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1626,11 +1671,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1638,13 +1683,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>9700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1938,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,19 +2122,22 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2080,11 +2149,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2101,11 +2170,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2113,69 +2182,75 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E43" s="3">
         <v>7300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>8200</v>
       </c>
       <c r="H44" s="3">
         <v>8200</v>
       </c>
       <c r="I44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J44" s="3">
         <v>8900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>600</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
       </c>
       <c r="K45" s="3">
+        <v>600</v>
+      </c>
+      <c r="L45" s="3">
         <v>800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
       </c>
       <c r="N45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
       <c r="P45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E46" s="3">
         <v>25400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>41500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>43500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2824,63 +2931,66 @@
         <v>1900</v>
       </c>
       <c r="E48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1400</v>
       </c>
       <c r="Q48" s="3">
         <v>1400</v>
       </c>
       <c r="R48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
@@ -2919,7 +3029,7 @@
         <v>600</v>
       </c>
       <c r="Q49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R49" s="3">
         <v>700</v>
@@ -2931,10 +3041,13 @@
         <v>700</v>
       </c>
       <c r="U49" s="3">
+        <v>700</v>
+      </c>
+      <c r="V49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3063,13 +3182,13 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -3093,25 +3212,28 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
       </c>
       <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E54" s="3">
         <v>28000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>47400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>48100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,81 +3403,85 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -3365,8 +3498,8 @@
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3392,141 +3525,150 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>7800</v>
       </c>
       <c r="N59" s="3">
         <v>7800</v>
       </c>
       <c r="O59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="P59" s="3">
         <v>7300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
         <v>8700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3569,43 +3711,46 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>700</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
@@ -3614,22 +3759,25 @@
         <v>700</v>
       </c>
       <c r="Q62" s="3">
+        <v>700</v>
+      </c>
+      <c r="R62" s="3">
         <v>800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>400</v>
       </c>
       <c r="S62" s="3">
         <v>400</v>
       </c>
       <c r="T62" s="3">
+        <v>400</v>
+      </c>
+      <c r="U62" s="3">
         <v>500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E66" s="3">
         <v>10600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-20700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E76" s="3">
         <v>17400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>37600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4641,16 +4839,16 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4682,8 +4880,11 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,13 +5278,14 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5074,11 +5294,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5086,40 +5306,43 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-300</v>
       </c>
       <c r="U91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,13 +5462,16 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-5400</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5251,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -5263,40 +5492,43 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-400</v>
       </c>
       <c r="T94" s="3">
         <v>-400</v>
       </c>
       <c r="U94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,78 +5796,84 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>14900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5634,28 +5882,28 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>10</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>10</v>
@@ -5672,63 +5920,69 @@
       <c r="U101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E8" s="3">
         <v>12000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E9" s="3">
         <v>7000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>4500</v>
       </c>
       <c r="T10" s="3">
         <v>4500</v>
       </c>
       <c r="U10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V10" s="3">
         <v>5500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>900</v>
       </c>
       <c r="F12" s="3">
         <v>900</v>
       </c>
       <c r="G12" s="3">
+        <v>900</v>
+      </c>
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1500</v>
       </c>
       <c r="T12" s="3">
         <v>1500</v>
       </c>
       <c r="U12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1114,17 +1134,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1132,11 +1152,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1144,14 +1164,17 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E17" s="3">
         <v>13800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>14400</v>
       </c>
       <c r="N17" s="3">
         <v>14400</v>
       </c>
       <c r="O17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="P17" s="3">
         <v>13600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,22 +1414,23 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1408,11 +1442,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1429,11 +1463,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1441,72 +1475,78 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1674,11 +1720,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1686,13 +1732,16 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>9700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,22 +2192,25 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2152,11 +2222,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2173,11 +2243,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2185,72 +2255,78 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E41" s="3">
         <v>28000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2702,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E43" s="3">
         <v>8200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>8200</v>
       </c>
       <c r="I44" s="3">
         <v>8200</v>
       </c>
       <c r="J44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K44" s="3">
         <v>8900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
       </c>
       <c r="L45" s="3">
+        <v>600</v>
+      </c>
+      <c r="M45" s="3">
         <v>800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
       </c>
       <c r="O45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E46" s="3">
         <v>44200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>43500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>45900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,70 +3027,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="E48" s="3">
         <v>1900</v>
       </c>
       <c r="F48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1400</v>
       </c>
       <c r="R48" s="3">
         <v>1400</v>
       </c>
       <c r="S48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,7 +3104,7 @@
         <v>3300</v>
       </c>
       <c r="E49" s="3">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="F49" s="3">
         <v>600</v>
@@ -3032,7 +3143,7 @@
         <v>600</v>
       </c>
       <c r="R49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S49" s="3">
         <v>700</v>
@@ -3044,10 +3155,13 @@
         <v>700</v>
       </c>
       <c r="V49" s="3">
+        <v>700</v>
+      </c>
+      <c r="W49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3185,13 +3305,13 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3215,25 +3335,28 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
       </c>
       <c r="V52" s="3">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E54" s="3">
         <v>49600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>30900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>47400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>48100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,87 +3534,91 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
@@ -3501,8 +3635,8 @@
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3528,150 +3662,159 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
         <v>8900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>7800</v>
       </c>
       <c r="O59" s="3">
         <v>7800</v>
       </c>
       <c r="P59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>7300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E60" s="3">
         <v>12700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3714,46 +3857,49 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E62" s="3">
         <v>10900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
@@ -3762,22 +3908,25 @@
         <v>700</v>
       </c>
       <c r="R62" s="3">
+        <v>700</v>
+      </c>
+      <c r="S62" s="3">
         <v>800</v>
-      </c>
-      <c r="S62" s="3">
-        <v>400</v>
       </c>
       <c r="T62" s="3">
         <v>400</v>
       </c>
       <c r="U62" s="3">
+        <v>400</v>
+      </c>
+      <c r="V62" s="3">
         <v>500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E66" s="3">
         <v>23900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-20700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E76" s="3">
         <v>25600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>37600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,13 +5019,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4842,16 +5041,16 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>11800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5288,7 +5509,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5297,11 +5518,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5309,40 +5530,43 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-300</v>
       </c>
       <c r="V91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,17 +5692,20 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5483,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -5495,40 +5725,43 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-400</v>
       </c>
       <c r="U94" s="3">
         <v>-400</v>
       </c>
       <c r="V94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,84 +6042,90 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>9900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>14900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5885,28 +6134,28 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>10</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>10</v>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>16400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E8" s="3">
         <v>13400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E10" s="3">
         <v>6100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>4500</v>
       </c>
       <c r="U10" s="3">
         <v>4500</v>
       </c>
       <c r="V10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W10" s="3">
         <v>5500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +991,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>900</v>
       </c>
       <c r="G12" s="3">
         <v>900</v>
       </c>
       <c r="H12" s="3">
+        <v>900</v>
+      </c>
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1500</v>
       </c>
       <c r="U12" s="3">
         <v>1500</v>
       </c>
       <c r="V12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1137,17 +1157,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1155,11 +1175,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1167,14 +1187,17 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E17" s="3">
         <v>14600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>14400</v>
       </c>
       <c r="O17" s="3">
         <v>14400</v>
       </c>
       <c r="P17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>13600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,25 +1448,26 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1445,11 +1479,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1466,11 +1500,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1478,75 +1512,81 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,73 +1650,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1723,11 +1769,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1735,13 +1781,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>9700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,25 +2262,28 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2225,11 +2295,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2246,11 +2316,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2258,75 +2328,81 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E41" s="3">
         <v>26300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,268 +2795,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E43" s="3">
         <v>8600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E44" s="3">
         <v>8000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>8200</v>
       </c>
       <c r="J44" s="3">
         <v>8200</v>
       </c>
       <c r="K44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L44" s="3">
         <v>8900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>11600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>600</v>
       </c>
       <c r="L45" s="3">
         <v>600</v>
       </c>
       <c r="M45" s="3">
+        <v>600</v>
+      </c>
+      <c r="N45" s="3">
         <v>800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>700</v>
       </c>
       <c r="R45" s="3">
+        <v>700</v>
+      </c>
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E46" s="3">
         <v>43700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>41400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>41500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>43500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>45000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>45900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,84 +3135,90 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1900</v>
       </c>
       <c r="F48" s="3">
         <v>1900</v>
       </c>
       <c r="G48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1400</v>
       </c>
       <c r="S48" s="3">
         <v>1400</v>
       </c>
       <c r="T48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U48" s="3">
         <v>1600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E49" s="3">
         <v>3300</v>
       </c>
       <c r="F49" s="3">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
@@ -3146,7 +3257,7 @@
         <v>600</v>
       </c>
       <c r="S49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T49" s="3">
         <v>700</v>
@@ -3158,10 +3269,13 @@
         <v>700</v>
       </c>
       <c r="W49" s="3">
+        <v>700</v>
+      </c>
+      <c r="X49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3308,13 +3428,13 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3338,25 +3458,28 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
+        <v>200</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
       </c>
       <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,8 +3543,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3429,64 +3555,67 @@
         <v>50500</v>
       </c>
       <c r="E54" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F54" s="3">
         <v>49600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>30900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>47400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>48100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3665,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3609,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
@@ -3638,8 +3772,8 @@
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3665,138 +3799,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>7800</v>
       </c>
       <c r="P59" s="3">
         <v>7800</v>
       </c>
       <c r="Q59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="R59" s="3">
         <v>7300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3804,20 +3947,20 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3860,49 +4003,52 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E62" s="3">
         <v>12700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
@@ -3911,22 +4057,25 @@
         <v>700</v>
       </c>
       <c r="S62" s="3">
+        <v>700</v>
+      </c>
+      <c r="T62" s="3">
         <v>800</v>
-      </c>
-      <c r="T62" s="3">
-        <v>400</v>
       </c>
       <c r="U62" s="3">
         <v>400</v>
       </c>
       <c r="V62" s="3">
+        <v>400</v>
+      </c>
+      <c r="W62" s="3">
         <v>500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E66" s="3">
         <v>23600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-57600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-41800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E76" s="3">
         <v>26900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>37600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>39200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5029,7 +5228,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -5044,16 +5243,16 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5720,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5512,7 +5733,7 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5521,11 +5742,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5533,40 +5754,43 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-300</v>
       </c>
       <c r="W91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5922,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5704,11 +5934,11 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5716,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -5728,40 +5958,43 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-400</v>
       </c>
       <c r="V94" s="3">
         <v>-400</v>
       </c>
       <c r="W94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>14900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6119,16 +6368,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -6137,28 +6386,28 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>10</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>10</v>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>IRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,334 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F8" s="3">
         <v>13300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>13400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>12300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>11300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>10200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>10900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>10000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>10500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>12500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3800</v>
       </c>
       <c r="J9" s="3">
         <v>5100</v>
       </c>
       <c r="K9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M9" s="3">
         <v>6900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>6300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>6000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>6500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>5500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>6000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>7000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>4300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>4500</v>
       </c>
       <c r="N10" s="3">
         <v>4300</v>
       </c>
       <c r="O10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>4700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>4500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,40 +1017,42 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>700</v>
       </c>
       <c r="K12" s="3">
         <v>800</v>
       </c>
       <c r="L12" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N12" s="3">
         <v>1000</v>
@@ -1034,7 +1061,7 @@
         <v>900</v>
       </c>
       <c r="P12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q12" s="3">
         <v>900</v>
@@ -1043,25 +1070,31 @@
         <v>1100</v>
       </c>
       <c r="S12" s="3">
+        <v>900</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,31 +1161,37 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-2500</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1160,44 +1199,50 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>100</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F17" s="3">
         <v>15400</v>
       </c>
-      <c r="E17" s="3">
-        <v>14600</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H17" s="3">
         <v>13800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>12600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>10600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>12900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>13600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>14400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>14400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>13600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>13100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>15500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>13900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>12700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>12300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>13600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1800</v>
-      </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>1300</v>
       </c>
       <c r="H18" s="3">
         <v>-1800</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,31 +1514,33 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>2600</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1482,14 +1549,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1503,90 +1570,102 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1900</v>
+        <v>-2300</v>
       </c>
       <c r="E21" s="3">
-        <v>1600</v>
+        <v>-2200</v>
       </c>
       <c r="F21" s="3">
         <v>-1900</v>
       </c>
       <c r="G21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-2600</v>
       </c>
       <c r="P21" s="3">
         <v>-2800</v>
       </c>
       <c r="Q21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S21" s="3">
         <v>-3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-5100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,76 +1732,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1772,25 +1863,31 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>9700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2800</v>
       </c>
       <c r="J26" s="3">
         <v>-1700</v>
       </c>
       <c r="K26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-10800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2800</v>
       </c>
       <c r="J27" s="3">
         <v>-1700</v>
       </c>
       <c r="K27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-10800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,31 +2398,37 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>-2600</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2298,14 +2437,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2319,90 +2458,102 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2800</v>
       </c>
       <c r="J33" s="3">
         <v>-1700</v>
       </c>
       <c r="K33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-10800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2800</v>
       </c>
       <c r="J35" s="3">
         <v>-1700</v>
       </c>
       <c r="K35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-10800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2833,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F41" s="3">
         <v>25600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>26300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>28000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>11600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>11900</v>
       </c>
       <c r="I41" s="3">
         <v>11600</v>
       </c>
       <c r="J41" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L41" s="3">
         <v>11100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>17200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>21200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>16000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>18500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>21700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>22800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>24600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>23900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>23700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,194 +2977,212 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F43" s="3">
         <v>8500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>8600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>8200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>9300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>8800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>8400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>9100</v>
       </c>
       <c r="P43" s="3">
         <v>8400</v>
       </c>
       <c r="Q43" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="S43" s="3">
         <v>7100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>6400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>7900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>7400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>7000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>8900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>10000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F44" s="3">
         <v>8800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5700</v>
       </c>
       <c r="H44" s="3">
         <v>7000</v>
       </c>
       <c r="I44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K44" s="3">
         <v>7800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>8200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>8900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>9000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>8800</v>
       </c>
       <c r="P44" s="3">
         <v>8700</v>
       </c>
       <c r="Q44" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="S44" s="3">
         <v>9100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>9300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>9400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>10700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>11400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>11700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>11600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E45" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F45" s="3">
         <v>1000</v>
       </c>
       <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
-      </c>
-      <c r="R45" s="3">
-        <v>700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>500</v>
       </c>
       <c r="T45" s="3">
         <v>700</v>
@@ -2994,84 +3191,96 @@
         <v>500</v>
       </c>
       <c r="V45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W45" s="3">
         <v>500</v>
       </c>
       <c r="X45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F46" s="3">
         <v>43900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>43700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>44200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>25400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>25600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>25800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>27000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>30600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>31200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>33300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>35100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>39600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>41400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>32900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>34900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>39500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>41500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>43500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>45000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>45900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,93 +3347,105 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1500</v>
       </c>
       <c r="S48" s="3">
         <v>1400</v>
       </c>
       <c r="T48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W48" s="3">
         <v>1600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G49" s="3">
         <v>3300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -3260,10 +3481,10 @@
         <v>600</v>
       </c>
       <c r="T49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="V49" s="3">
         <v>700</v>
@@ -3272,10 +3493,16 @@
         <v>700</v>
       </c>
       <c r="X49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,16 +3643,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3431,7 +3670,7 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3440,7 +3679,7 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -3461,25 +3700,31 @@
         <v>200</v>
       </c>
       <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F54" s="3">
         <v>50500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>50500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>49600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>28000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>28500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>29300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>30900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>34800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>36000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>38500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>40700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>41700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>43500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>35100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>37200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>41600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>43600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>45800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>47400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>48100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,102 +3925,110 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M57" s="3">
         <v>2600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2200</v>
       </c>
       <c r="N57" s="3">
         <v>2400</v>
       </c>
       <c r="O57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1800</v>
       </c>
       <c r="V57" s="3">
         <v>1900</v>
       </c>
       <c r="W57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y57" s="3">
         <v>2000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
@@ -3775,11 +4042,11 @@
       <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3802,144 +4069,162 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F59" s="3">
         <v>9800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>6000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>5200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>6500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F60" s="3">
         <v>13000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>9800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>9300</v>
       </c>
       <c r="M60" s="3">
         <v>9800</v>
       </c>
       <c r="N60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="O60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="P60" s="3">
         <v>9600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>10400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>10400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>7200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3950,23 +4235,23 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4006,76 +4291,88 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12300</v>
+        <v>14100</v>
       </c>
       <c r="E62" s="3">
         <v>12700</v>
       </c>
       <c r="F62" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H62" s="3">
         <v>10900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>700</v>
       </c>
       <c r="S62" s="3">
         <v>700</v>
       </c>
       <c r="T62" s="3">
+        <v>700</v>
+      </c>
+      <c r="U62" s="3">
+        <v>700</v>
+      </c>
+      <c r="V62" s="3">
         <v>800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F66" s="3">
         <v>25200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>23600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>11100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-59700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-57600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-59000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-56900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-56800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-55000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-52300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-50600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-49100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-47300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-44900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-41800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-35900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-32600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-29000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-23800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-20700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-18000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-16100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F76" s="3">
         <v>25300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>26900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>25600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>17400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>17300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>18800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>21100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>22700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>24000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>25600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>27400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>30000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>32600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>24400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>27300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>30500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>35100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>37600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>39800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>39200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2800</v>
       </c>
       <c r="J81" s="3">
         <v>-1700</v>
       </c>
       <c r="K81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-10800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,22 +5614,24 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5246,19 +5643,19 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5287,8 +5684,14 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>11800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>900</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-300</v>
       </c>
       <c r="X89" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,34 +6378,40 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -5961,40 +6420,46 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6300,28 +6791,28 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>9900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6330,37 +6821,43 @@
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>10600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>14900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6371,49 +6868,49 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>10</v>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>10</v>
@@ -6427,72 +6924,84 @@
       <c r="X101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-700</v>
+        <v>-3200</v>
       </c>
       <c r="E102" s="3">
         <v>-1700</v>
       </c>
       <c r="F102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H102" s="3">
         <v>16400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="P102" s="3">
-        <v>7700</v>
       </c>
       <c r="Q102" s="3">
         <v>-2500</v>
       </c>
       <c r="R102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>14200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>IRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E8" s="3">
         <v>13400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="E10" s="3">
         <v>6000</v>
       </c>
       <c r="F10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G10" s="3">
         <v>5800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4400</v>
-      </c>
-      <c r="W10" s="3">
-        <v>4500</v>
       </c>
       <c r="X10" s="3">
         <v>4500</v>
       </c>
       <c r="Y10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Z10" s="3">
         <v>5500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>900</v>
       </c>
       <c r="J12" s="3">
         <v>900</v>
       </c>
       <c r="K12" s="3">
+        <v>900</v>
+      </c>
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1500</v>
       </c>
       <c r="X12" s="3">
         <v>1500</v>
       </c>
       <c r="Y12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z12" s="3">
         <v>1400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,25 +1184,28 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1193,8 +1213,8 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1205,17 +1225,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1223,11 +1243,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1235,14 +1255,17 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
         <v>15700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>14400</v>
       </c>
       <c r="R17" s="3">
         <v>14400</v>
       </c>
       <c r="S17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="T17" s="3">
         <v>13600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1528,22 +1562,22 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1555,11 +1589,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1576,11 +1610,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1588,84 +1622,90 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="E23" s="3">
         <v>-2400</v>
       </c>
       <c r="F23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,11 +1915,11 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1881,13 +1927,16 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>9700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="E26" s="3">
         <v>-2400</v>
       </c>
       <c r="F26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="E27" s="3">
         <v>-2400</v>
       </c>
       <c r="F27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2416,22 +2486,22 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2443,11 +2513,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2464,11 +2534,11 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2476,84 +2546,90 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="E33" s="3">
         <v>-2400</v>
       </c>
       <c r="F33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="E35" s="3">
         <v>-2400</v>
       </c>
       <c r="F35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E41" s="3">
         <v>20600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>22800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>23900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>23700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,304 +3073,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E43" s="3">
         <v>10500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>10000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E44" s="3">
         <v>9100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>8200</v>
       </c>
       <c r="M44" s="3">
         <v>8200</v>
       </c>
       <c r="N44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O44" s="3">
         <v>8900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>10700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>11400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>11700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>600</v>
       </c>
       <c r="O45" s="3">
         <v>600</v>
       </c>
       <c r="P45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>800</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
       </c>
       <c r="R45" s="3">
         <v>500</v>
       </c>
       <c r="S45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T45" s="3">
         <v>700</v>
       </c>
       <c r="U45" s="3">
+        <v>700</v>
+      </c>
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E46" s="3">
         <v>41900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>43700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>35100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>39500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>41500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>43500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>45000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>45900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,82 +3458,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1900</v>
       </c>
       <c r="I48" s="3">
         <v>1900</v>
       </c>
       <c r="J48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1400</v>
       </c>
       <c r="V48" s="3">
         <v>1400</v>
       </c>
       <c r="W48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X48" s="3">
         <v>1600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3436,19 +3547,19 @@
         <v>3100</v>
       </c>
       <c r="E49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F49" s="3">
         <v>3200</v>
       </c>
       <c r="G49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H49" s="3">
         <v>3300</v>
       </c>
       <c r="I49" s="3">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="J49" s="3">
         <v>600</v>
@@ -3487,7 +3598,7 @@
         <v>600</v>
       </c>
       <c r="V49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="W49" s="3">
         <v>700</v>
@@ -3499,10 +3610,13 @@
         <v>700</v>
       </c>
       <c r="Z49" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,19 +3766,22 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3676,13 +3796,13 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -3706,25 +3826,28 @@
         <v>200</v>
       </c>
       <c r="U52" s="3">
+        <v>200</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
       </c>
       <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E54" s="3">
         <v>48000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>50500</v>
       </c>
       <c r="G54" s="3">
         <v>50500</v>
       </c>
       <c r="H54" s="3">
+        <v>50500</v>
+      </c>
+      <c r="I54" s="3">
         <v>49600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>38500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>45800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>47400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>48100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,90 +4057,94 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4019,19 +4153,19 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
@@ -4048,8 +4182,8 @@
       <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4075,156 +4209,165 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E59" s="3">
         <v>9100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>7800</v>
       </c>
       <c r="S59" s="3">
         <v>7800</v>
       </c>
       <c r="T59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="U59" s="3">
         <v>7300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="E60" s="3">
         <v>12600</v>
       </c>
       <c r="F60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G60" s="3">
         <v>13000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4241,20 +4384,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4297,58 +4440,61 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E62" s="3">
         <v>14100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
-      </c>
-      <c r="S62" s="3">
-        <v>700</v>
       </c>
       <c r="T62" s="3">
         <v>700</v>
@@ -4357,22 +4503,25 @@
         <v>700</v>
       </c>
       <c r="V62" s="3">
+        <v>700</v>
+      </c>
+      <c r="W62" s="3">
         <v>800</v>
-      </c>
-      <c r="W62" s="3">
-        <v>400</v>
       </c>
       <c r="X62" s="3">
         <v>400</v>
       </c>
       <c r="Y62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z62" s="3">
         <v>500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E66" s="3">
         <v>26700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-57600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-50600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-41800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-20700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E76" s="3">
         <v>21300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>37600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>39800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>39200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="E81" s="3">
         <v>-2400</v>
       </c>
       <c r="F81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5625,7 +5824,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -5634,7 +5833,7 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5649,16 +5848,16 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,19 +6382,20 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -6183,7 +6404,7 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6192,11 +6413,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -6204,40 +6425,43 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-300</v>
       </c>
       <c r="Z91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,29 +6611,32 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6414,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -6426,40 +6656,43 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-200</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-400</v>
       </c>
       <c r="Y94" s="3">
         <v>-400</v>
       </c>
       <c r="Z94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,13 +7025,16 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6797,72 +7043,75 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>2200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>14900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6874,16 +7123,16 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6892,28 +7141,28 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>10</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>10</v>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>14200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>IRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E8" s="3">
         <v>13800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E10" s="3">
         <v>6300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6000</v>
       </c>
       <c r="F10" s="3">
         <v>6000</v>
       </c>
       <c r="G10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H10" s="3">
         <v>5800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4400</v>
-      </c>
-      <c r="X10" s="3">
-        <v>4500</v>
       </c>
       <c r="Y10" s="3">
         <v>4500</v>
       </c>
       <c r="Z10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="AA10" s="3">
         <v>5500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,85 +1046,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>900</v>
       </c>
       <c r="K12" s="3">
         <v>900</v>
       </c>
       <c r="L12" s="3">
+        <v>900</v>
+      </c>
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
-      </c>
-      <c r="X12" s="3">
-        <v>1500</v>
       </c>
       <c r="Y12" s="3">
         <v>1500</v>
       </c>
       <c r="Z12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA12" s="3">
         <v>1400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,17 +1218,17 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1216,8 +1236,8 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1228,17 +1248,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1246,11 +1266,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1258,14 +1278,17 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
         <v>15900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>14400</v>
       </c>
       <c r="S17" s="3">
         <v>14400</v>
       </c>
       <c r="T17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="U17" s="3">
         <v>13600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>13600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,13 +1583,14 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-100</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1565,22 +1599,22 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1592,11 +1626,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1613,11 +1647,11 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1625,87 +1659,93 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,85 +1821,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2400</v>
       </c>
       <c r="F23" s="3">
         <v>-2400</v>
       </c>
       <c r="G23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1918,11 +1964,11 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1930,13 +1976,16 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>9700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2400</v>
       </c>
       <c r="F26" s="3">
         <v>-2400</v>
       </c>
       <c r="G26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-2400</v>
       </c>
       <c r="F27" s="3">
         <v>-2400</v>
       </c>
       <c r="G27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,13 +2541,16 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>100</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -2489,22 +2559,22 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2516,11 +2586,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2537,11 +2607,11 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2549,87 +2619,93 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-2400</v>
       </c>
       <c r="F33" s="3">
         <v>-2400</v>
       </c>
       <c r="G33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-2400</v>
       </c>
       <c r="F35" s="3">
         <v>-2400</v>
       </c>
       <c r="G35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E41" s="3">
         <v>18000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>21700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>22800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>23900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>23700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,316 +3166,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E43" s="3">
         <v>9200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>10000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E44" s="3">
         <v>10200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>8200</v>
       </c>
       <c r="N44" s="3">
         <v>8200</v>
       </c>
       <c r="O44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="P44" s="3">
         <v>8900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>10700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>11400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>11600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
       <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>600</v>
       </c>
       <c r="P45" s="3">
         <v>600</v>
       </c>
       <c r="Q45" s="3">
+        <v>600</v>
+      </c>
+      <c r="R45" s="3">
         <v>800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>500</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
       </c>
       <c r="T45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="U45" s="3">
         <v>700</v>
       </c>
       <c r="V45" s="3">
+        <v>700</v>
+      </c>
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E46" s="3">
         <v>39400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>43900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>43700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>44200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>41400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>32900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>39500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>41500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>43500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>45000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>45900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,108 +3566,114 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1900</v>
       </c>
       <c r="J48" s="3">
         <v>1900</v>
       </c>
       <c r="K48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1500</v>
-      </c>
-      <c r="V48" s="3">
-        <v>1400</v>
       </c>
       <c r="W48" s="3">
         <v>1400</v>
       </c>
       <c r="X48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E49" s="3">
         <v>3100</v>
       </c>
       <c r="F49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G49" s="3">
         <v>3200</v>
       </c>
       <c r="H49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I49" s="3">
         <v>3300</v>
       </c>
       <c r="J49" s="3">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="K49" s="3">
         <v>600</v>
@@ -3601,7 +3712,7 @@
         <v>600</v>
       </c>
       <c r="W49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X49" s="3">
         <v>700</v>
@@ -3613,10 +3724,13 @@
         <v>700</v>
       </c>
       <c r="AA49" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,22 +3886,25 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3799,13 +3919,13 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -3829,25 +3949,28 @@
         <v>200</v>
       </c>
       <c r="V52" s="3">
+        <v>200</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
       </c>
       <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E54" s="3">
         <v>45600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>50500</v>
       </c>
       <c r="H54" s="3">
         <v>50500</v>
       </c>
       <c r="I54" s="3">
+        <v>50500</v>
+      </c>
+      <c r="J54" s="3">
         <v>49600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>43600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>45800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>47400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>48100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,85 +4188,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4146,8 +4280,8 @@
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4156,19 +4290,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>10</v>
@@ -4185,8 +4319,8 @@
       <c r="R58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4212,162 +4346,171 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E59" s="3">
         <v>8500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8000</v>
-      </c>
-      <c r="S59" s="3">
-        <v>7800</v>
       </c>
       <c r="T59" s="3">
         <v>7800</v>
       </c>
       <c r="U59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="V59" s="3">
         <v>7300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E60" s="3">
         <v>12400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>12600</v>
       </c>
       <c r="F60" s="3">
         <v>12600</v>
       </c>
       <c r="G60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H60" s="3">
         <v>13000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4387,20 +4530,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4443,61 +4586,64 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E62" s="3">
         <v>13900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
-      </c>
-      <c r="T62" s="3">
-        <v>700</v>
       </c>
       <c r="U62" s="3">
         <v>700</v>
@@ -4506,22 +4652,25 @@
         <v>700</v>
       </c>
       <c r="W62" s="3">
+        <v>700</v>
+      </c>
+      <c r="X62" s="3">
         <v>800</v>
-      </c>
-      <c r="X62" s="3">
-        <v>400</v>
       </c>
       <c r="Y62" s="3">
         <v>400</v>
       </c>
       <c r="Z62" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA62" s="3">
         <v>500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E66" s="3">
         <v>26200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-66800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-59700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-57600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-59000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-49100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-41800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-38900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-29000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-23800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-16100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E76" s="3">
         <v>19400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>35100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>37600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>39800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>39200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-2400</v>
       </c>
       <c r="F81" s="3">
         <v>-2400</v>
       </c>
       <c r="G81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5827,7 +6026,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -5836,7 +6035,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5851,16 +6050,16 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5892,8 +6091,11 @@
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6603,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6392,13 +6613,13 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -6407,7 +6628,7 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6416,11 +6637,11 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6428,40 +6649,43 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>-300</v>
       </c>
       <c r="AA91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6841,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6623,23 +6853,23 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6647,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -6659,40 +6889,43 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-400</v>
       </c>
       <c r="Z94" s="3">
         <v>-400</v>
       </c>
       <c r="AA94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,17 +7271,20 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -7046,67 +7292,70 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>2200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>14900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7114,7 +7363,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -7126,16 +7375,16 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7144,28 +7393,28 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>10</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>10</v>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>14200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>IRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,386 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F8" s="3">
         <v>14600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>13800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>13400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>15300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>13300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>13400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>12300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>10600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>11500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>11300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>10300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>9500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>10200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>10900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>10000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>10500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>12500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F9" s="3">
         <v>8200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>9300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3800</v>
       </c>
       <c r="N9" s="3">
         <v>5100</v>
       </c>
       <c r="O9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>6900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>6800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>6700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>6000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>5600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>8100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>6500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>5500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>6000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>7000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F10" s="3">
         <v>6400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>6000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>6100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4900</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>4500</v>
       </c>
       <c r="R10" s="3">
         <v>4300</v>
       </c>
       <c r="S10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U10" s="3">
         <v>4700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>3900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>4500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>4500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>5500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,52 +1073,54 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>700</v>
       </c>
       <c r="O12" s="3">
         <v>800</v>
       </c>
       <c r="P12" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R12" s="3">
         <v>1000</v>
@@ -1101,7 +1129,7 @@
         <v>900</v>
       </c>
       <c r="T12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="U12" s="3">
         <v>900</v>
@@ -1110,25 +1138,31 @@
         <v>1100</v>
       </c>
       <c r="W12" s="3">
+        <v>900</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>1400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,8 +1241,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1221,29 +1261,29 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>-2500</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1251,44 +1291,50 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
-        <v>100</v>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1413,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1446,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G17" s="3">
         <v>15900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>17700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>15400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>13400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>12900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>13600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>14400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>14400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>13600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>13100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>15500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>13900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>12700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>12300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>13600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-1800</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-5300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,43 +1650,45 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="3">
-        <v>-100</v>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1629,14 +1697,14 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1650,102 +1718,114 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3">
-        <v>-2100</v>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F21" s="3">
-        <v>-2300</v>
+        <v>-1600</v>
       </c>
       <c r="G21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1600</v>
       </c>
       <c r="J21" s="3">
         <v>-1900</v>
       </c>
       <c r="K21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-2600</v>
       </c>
       <c r="T21" s="3">
         <v>-2800</v>
       </c>
       <c r="U21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="W21" s="3">
         <v>-3100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-3400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-5100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1824,88 +1904,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-3600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1967,25 +2059,31 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>9700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2162,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2800</v>
       </c>
       <c r="N26" s="3">
         <v>-1700</v>
       </c>
       <c r="O26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-2800</v>
       </c>
       <c r="N27" s="3">
         <v>-1700</v>
       </c>
       <c r="O27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2420,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2506,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2592,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,43 +2678,49 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="3">
-        <v>100</v>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2589,14 +2729,14 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2610,102 +2750,114 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-2800</v>
       </c>
       <c r="N33" s="3">
         <v>-1700</v>
       </c>
       <c r="O33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2936,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-2800</v>
       </c>
       <c r="N35" s="3">
         <v>-1700</v>
       </c>
       <c r="O35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3149,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3181,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F41" s="3">
         <v>15900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>18000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>20600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>25600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>26300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>28000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>11600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>11900</v>
       </c>
       <c r="M41" s="3">
         <v>11600</v>
       </c>
       <c r="N41" s="3">
+        <v>11900</v>
+      </c>
+      <c r="O41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="P41" s="3">
         <v>11100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>15600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>17200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>21200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>23700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>16000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>18500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>21700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>22800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>24600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>23900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>23700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,230 +3349,248 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F43" s="3">
         <v>9700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>9200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>10500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>9700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>8500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>8200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>6100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>9300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>8800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>8100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>8400</v>
-      </c>
-      <c r="S43" s="3">
-        <v>9100</v>
       </c>
       <c r="T43" s="3">
         <v>8400</v>
       </c>
       <c r="U43" s="3">
+        <v>9100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="W43" s="3">
         <v>7100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>6400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>7900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>7400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>7000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>8900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>10000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F44" s="3">
         <v>10800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>10200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>9100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>7600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>8800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>5700</v>
       </c>
       <c r="L44" s="3">
         <v>7000</v>
       </c>
       <c r="M44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O44" s="3">
         <v>7800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>8200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>8200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>8900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>9000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="S44" s="3">
-        <v>8800</v>
       </c>
       <c r="T44" s="3">
         <v>8700</v>
       </c>
       <c r="U44" s="3">
+        <v>8800</v>
+      </c>
+      <c r="V44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="W44" s="3">
         <v>9100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>9300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>9400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>10700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>11400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>11700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>11600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>900</v>
       </c>
       <c r="J45" s="3">
         <v>1000</v>
       </c>
       <c r="K45" s="3">
+        <v>900</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
-      </c>
-      <c r="V45" s="3">
-        <v>700</v>
-      </c>
-      <c r="W45" s="3">
-        <v>500</v>
       </c>
       <c r="X45" s="3">
         <v>700</v>
@@ -3401,96 +3599,108 @@
         <v>500</v>
       </c>
       <c r="Z45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AA45" s="3">
         <v>500</v>
       </c>
       <c r="AB45" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F46" s="3">
         <v>38300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>39400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>41900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>42300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>43900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>43700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>44200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>25400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>25600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>25800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>27000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>30600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>31200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>33300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>35100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>39600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>41400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>32900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>34900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>39500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>41500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>43500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>45000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>45900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3569,117 +3779,129 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V48" s="3">
-        <v>1500</v>
       </c>
       <c r="W48" s="3">
         <v>1400</v>
       </c>
       <c r="X48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA48" s="3">
         <v>1600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
         <v>3000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>600</v>
       </c>
       <c r="M49" s="3">
         <v>600</v>
@@ -3715,10 +3937,10 @@
         <v>600</v>
       </c>
       <c r="X49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Z49" s="3">
         <v>700</v>
@@ -3727,10 +3949,16 @@
         <v>700</v>
       </c>
       <c r="AB49" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +4037,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,28 +4123,34 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3922,7 +4162,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3931,7 +4171,7 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -3952,25 +4192,31 @@
         <v>200</v>
       </c>
       <c r="W52" s="3">
+        <v>200</v>
+      </c>
+      <c r="X52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
         <v>100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4295,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F54" s="3">
         <v>45000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>45600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>48000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>48700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>50500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>50500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>49600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>28000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>28500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>29300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>30900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>34800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>36000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>38500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>40700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>41700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>43500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>35100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>37200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>41600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>43600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>45800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>47400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>48100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4417,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,99 +4449,107 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>1500</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2200</v>
       </c>
       <c r="R57" s="3">
         <v>2400</v>
       </c>
       <c r="S57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1700</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>1800</v>
       </c>
       <c r="Z57" s="3">
         <v>1900</v>
       </c>
       <c r="AA57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC57" s="3">
         <v>2000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4293,22 +4561,22 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
@@ -4322,11 +4590,11 @@
       <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4349,168 +4617,186 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="E59" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="F59" s="3">
         <v>9100</v>
       </c>
       <c r="G59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I59" s="3">
         <v>9900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>7800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>7800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>7300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>8700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>5800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>6000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>5200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>6500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F60" s="3">
         <v>13600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>9800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>9300</v>
       </c>
       <c r="Q60" s="3">
         <v>9800</v>
       </c>
       <c r="R60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="S60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="T60" s="3">
         <v>9600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>10500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>10400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>10000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>10400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>7700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>7200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>8500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4533,23 +4819,23 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4589,88 +4875,100 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F62" s="3">
         <v>13300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>13900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>14100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>12300</v>
       </c>
       <c r="I62" s="3">
         <v>12700</v>
       </c>
       <c r="J62" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="L62" s="3">
         <v>10900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>500</v>
-      </c>
-      <c r="U62" s="3">
-        <v>700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>700</v>
       </c>
       <c r="W62" s="3">
         <v>700</v>
       </c>
       <c r="X62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z62" s="3">
         <v>800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +5047,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +5133,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5219,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F66" s="3">
         <v>26900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>26200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>26700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>25400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>25200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>23600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>23900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>13200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>11700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>10000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>11100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>8500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>7600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>9000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5341,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5423,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5509,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5595,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5681,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-68600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-66800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-64600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-62200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-59700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-57600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-59000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-56900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-56800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-55000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-52300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-50600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-47300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-44900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-41800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-38900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-35900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-32600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-29000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-23800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-16100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5853,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5939,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +6025,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F76" s="3">
         <v>18100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>19400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>21300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>23300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>25300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>26900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>25600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>17300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>18800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>22700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>24000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>25600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>27400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>30000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>32600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>24400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>27300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>30500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>35100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>37600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>39800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>39200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6197,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-2800</v>
       </c>
       <c r="N81" s="3">
         <v>-1700</v>
       </c>
       <c r="O81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,16 +6410,18 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -6032,16 +6430,16 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>-700</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -6053,19 +6451,19 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -6094,8 +6492,14 @@
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6578,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6664,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6750,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6836,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6922,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>400</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>900</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-300</v>
       </c>
       <c r="AB89" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +7044,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +7212,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,46 +7298,52 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -6892,40 +7352,46 @@
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7420,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7502,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7588,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7674,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,16 +7760,22 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
+      <c r="D100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -7292,31 +7784,31 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-9500</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>9900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7325,102 +7817,108 @@
         <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>10600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>2200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>14900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>10</v>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>10</v>
@@ -7434,84 +7932,96 @@
       <c r="AB101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-3200</v>
-      </c>
       <c r="G102" s="3">
-        <v>-1700</v>
+        <v>-5900</v>
       </c>
       <c r="H102" s="3">
-        <v>-700</v>
+        <v>-15500</v>
       </c>
       <c r="I102" s="3">
         <v>-1700</v>
       </c>
       <c r="J102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L102" s="3">
         <v>16400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-4000</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="T102" s="3">
-        <v>7700</v>
       </c>
       <c r="U102" s="3">
         <v>-2500</v>
       </c>
       <c r="V102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="W102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="X102" s="3">
         <v>-3200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>14200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-1900</v>
       </c>
     </row>
